--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_22_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_22_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>479667.0773238616</v>
+        <v>476769.649066225</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>18.21008304703375</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>18.21008304703217</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>16.03944114782592</v>
+        <v>13.88719820851068</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>18.21008304703375</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>18.21008304703217</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>13.48628024463896</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.21008304703217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,13 +741,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>18.21008304703375</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>16.03944114782732</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>18.21008304703375</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18.21008304703217</v>
+        <v>18.21008304703375</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.21008304703217</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>16.03944114782593</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.21008304703217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>16.03944114782732</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.21008304703217</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>16.03944114782592</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>18.21008304703217</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>18.21008304703217</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>18.21008304703375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>18.21008304703375</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>18.21008304703375</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>43.85944218949135</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="F5" t="n">
-        <v>44.00343544142157</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="G5" t="n">
         <v>49.79500702712463</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>49.65101377519441</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -978,16 +978,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>43.85944218949135</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>47.15831191777808</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1032,13 +1032,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>46.49613729883792</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>24.65546709791185</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>42.76279030041251</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>49.79500702712463</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>17.62325037119972</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1139,13 +1139,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>55.72339490806525</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="G8" t="n">
-        <v>62.23605351084164</v>
+        <v>13.38870434448781</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>112.1126601249237</v>
@@ -1215,70 +1215,70 @@
         <v>112.1126601249237</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>36.57392307749219</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>54.13711731454486</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
       <c r="Y9" t="n">
-        <v>44.6117137234879</v>
+        <v>62.17490796054056</v>
       </c>
     </row>
     <row r="10">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>112.1126601249237</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>32.65832442698833</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>84.48026621731221</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>51.82194179032386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,22 +1373,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>371.5595550832173</v>
+        <v>205.5146946421463</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1531,19 +1531,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>73.3493197021653</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>42.32069823344337</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1616,16 +1616,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.592917841534</v>
+        <v>171.7043910321855</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>291.2403613834999</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>28.90056660389934</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>101.6950537740602</v>
       </c>
       <c r="T14" t="n">
-        <v>36.33307530224107</v>
+        <v>202.4786139429425</v>
       </c>
       <c r="U14" t="n">
         <v>250.9688673339484</v>
@@ -1670,10 +1670,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.8235414765287</v>
       </c>
       <c r="H15" t="n">
-        <v>87.8977843151208</v>
+        <v>87.89778431512079</v>
       </c>
       <c r="I15" t="n">
-        <v>12.76005920853819</v>
+        <v>12.76005920853815</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>62.36864456563815</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.8783163942143</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>91.91693778434401</v>
+        <v>91.91693778434399</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>82.30038209396091</v>
       </c>
       <c r="S16" t="n">
-        <v>131.5733050591478</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>218.9187567628735</v>
@@ -1822,7 +1822,7 @@
         <v>286.2037931948048</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D17" t="n">
         <v>323.072839268469</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295226</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T17" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V17" t="n">
         <v>296.142056117921</v>
@@ -1910,7 +1910,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038376</v>
       </c>
     </row>
     <row r="18">
@@ -2008,10 +2008,10 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707175</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G19" t="n">
         <v>134.0758985510282</v>
@@ -2020,7 +2020,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139452935</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S19" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T19" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U19" t="n">
         <v>254.5831063612652</v>
@@ -2068,7 +2068,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D20" t="n">
         <v>323.072839268469</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T20" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3243840645691</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V20" t="n">
         <v>296.142056117921</v>
@@ -2147,7 +2147,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="21">
@@ -2245,7 +2245,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E22" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F22" t="n">
         <v>113.8108456707173</v>
@@ -2257,7 +2257,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453065</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221578</v>
+        <v>42.0474723022156</v>
       </c>
       <c r="S22" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T22" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U22" t="n">
         <v>254.5831063612652</v>
@@ -2305,7 +2305,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y22" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C23" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D23" t="n">
         <v>323.072839268469</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U23" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V23" t="n">
         <v>296.142056117921</v>
@@ -2384,7 +2384,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y23" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="24">
@@ -2482,7 +2482,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E25" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F25" t="n">
         <v>113.8108456707173</v>
@@ -2494,7 +2494,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S25" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T25" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U25" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V25" t="n">
         <v>220.5274409716141</v>
@@ -2542,7 +2542,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H26" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947556</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T26" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V26" t="n">
         <v>296.142056117921</v>
@@ -2731,7 +2731,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S28" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T28" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U28" t="n">
         <v>254.5831063612652</v>
@@ -2779,7 +2779,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="29">
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D29" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E29" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F29" t="n">
         <v>375.2658433894975</v>
@@ -2807,7 +2807,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H29" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295184</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545721</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U29" t="n">
         <v>219.3243840645689</v>
@@ -2852,13 +2852,13 @@
         <v>296.142056117921</v>
       </c>
       <c r="W29" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X29" t="n">
         <v>338.1208983262551</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="30">
@@ -2953,22 +2953,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G31" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139452848</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221584</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424825</v>
       </c>
       <c r="T31" t="n">
         <v>186.4872700401421</v>
@@ -3013,7 +3013,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y31" t="n">
         <v>186.9744509998809</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295167</v>
+        <v>60.32014642295165</v>
       </c>
       <c r="T32" t="n">
         <v>168.9926026545722</v>
@@ -3205,7 +3205,7 @@
         <v>110.1245053442996</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453001</v>
+        <v>54.52629139452999</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221567</v>
+        <v>42.04747230221565</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424832</v>
@@ -3247,7 +3247,7 @@
         <v>220.5274409716139</v>
       </c>
       <c r="W34" t="n">
-        <v>254.9127959843769</v>
+        <v>254.91279598438</v>
       </c>
       <c r="X34" t="n">
         <v>194.0994530368231</v>
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C35" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D35" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E35" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F35" t="n">
         <v>375.2658433894975</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T35" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U35" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V35" t="n">
         <v>296.142056117921</v>
@@ -3332,7 +3332,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y35" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="36">
@@ -3430,7 +3430,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E37" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F37" t="n">
         <v>113.8108456707173</v>
@@ -3442,7 +3442,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T37" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U37" t="n">
         <v>254.5831063612652</v>
@@ -3490,7 +3490,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C38" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D38" t="n">
         <v>323.072839268469</v>
@@ -3512,13 +3512,13 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F38" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G38" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H38" t="n">
-        <v>255.2416659947558</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295171</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T38" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U38" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V38" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W38" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X38" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y38" t="n">
         <v>354.6277363038396</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C40" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D40" t="n">
-        <v>117.0052706659983</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E40" t="n">
         <v>114.8237602943552</v>
       </c>
       <c r="F40" t="n">
-        <v>113.8108456707189</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G40" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H40" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453005</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221571</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S40" t="n">
-        <v>152.2386502424832</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T40" t="n">
-        <v>186.4872700401419</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U40" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V40" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W40" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X40" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y40" t="n">
         <v>186.9744509998808</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112665</v>
       </c>
       <c r="C41" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D41" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684689</v>
       </c>
       <c r="E41" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200477</v>
       </c>
       <c r="F41" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G41" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H41" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947558</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295165</v>
       </c>
       <c r="T41" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U41" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645687</v>
       </c>
       <c r="V41" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179208</v>
       </c>
       <c r="W41" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X41" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038395</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297232</v>
       </c>
       <c r="C43" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D43" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659983</v>
       </c>
       <c r="E43" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943551</v>
       </c>
       <c r="F43" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G43" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H43" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053443028</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453072</v>
+        <v>54.52629139452999</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221565</v>
       </c>
       <c r="S43" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424832</v>
       </c>
       <c r="T43" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U43" t="n">
-        <v>254.5831063612652</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V43" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716139</v>
       </c>
       <c r="W43" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843769</v>
       </c>
       <c r="X43" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y43" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998807</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C44" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D44" t="n">
         <v>323.072839268469</v>
@@ -3986,13 +3986,13 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F44" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G44" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H44" t="n">
-        <v>255.2416659947558</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295171</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T44" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U44" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V44" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W44" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X44" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y44" t="n">
         <v>354.6277363038396</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C46" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D46" t="n">
-        <v>117.0052706659983</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E46" t="n">
         <v>114.8237602943552</v>
       </c>
       <c r="F46" t="n">
-        <v>113.8108456707193</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G46" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H46" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453005</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221571</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S46" t="n">
-        <v>152.2386502424832</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T46" t="n">
-        <v>186.4872700401419</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U46" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V46" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W46" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X46" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y46" t="n">
         <v>186.9744509998808</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36.05228562846771</v>
+        <v>59.21782689051989</v>
       </c>
       <c r="C2" t="n">
-        <v>36.05228562846771</v>
+        <v>40.82380361068782</v>
       </c>
       <c r="D2" t="n">
-        <v>36.05228562846771</v>
+        <v>40.82380361068782</v>
       </c>
       <c r="E2" t="n">
-        <v>36.05228562846771</v>
+        <v>40.82380361068782</v>
       </c>
       <c r="F2" t="n">
-        <v>17.65826234863724</v>
+        <v>33.87830286148434</v>
       </c>
       <c r="G2" t="n">
-        <v>1.456806643762574</v>
+        <v>19.85082992359477</v>
       </c>
       <c r="H2" t="n">
-        <v>1.456806643762574</v>
+        <v>19.85082992359477</v>
       </c>
       <c r="I2" t="n">
-        <v>1.456806643762574</v>
+        <v>1.4568066437627</v>
       </c>
       <c r="J2" t="n">
-        <v>1.456806643762574</v>
+        <v>1.4568066437627</v>
       </c>
       <c r="K2" t="n">
-        <v>1.456806643762574</v>
+        <v>1.4568066437627</v>
       </c>
       <c r="L2" t="n">
-        <v>19.48478886032442</v>
+        <v>1.4568066437627</v>
       </c>
       <c r="M2" t="n">
-        <v>37.51277107688627</v>
+        <v>19.48478886032611</v>
       </c>
       <c r="N2" t="n">
-        <v>55.54075329344811</v>
+        <v>37.51277107688952</v>
       </c>
       <c r="O2" t="n">
-        <v>72.84033218812867</v>
+        <v>54.81234997157158</v>
       </c>
       <c r="P2" t="n">
-        <v>72.84033218812867</v>
+        <v>72.84033218813499</v>
       </c>
       <c r="Q2" t="n">
-        <v>72.84033218812867</v>
+        <v>72.84033218813499</v>
       </c>
       <c r="R2" t="n">
-        <v>54.44630890829819</v>
+        <v>72.84033218813499</v>
       </c>
       <c r="S2" t="n">
-        <v>54.44630890829819</v>
+        <v>72.84033218813499</v>
       </c>
       <c r="T2" t="n">
-        <v>54.44630890829819</v>
+        <v>72.84033218813499</v>
       </c>
       <c r="U2" t="n">
-        <v>54.44630890829819</v>
+        <v>72.84033218813499</v>
       </c>
       <c r="V2" t="n">
-        <v>54.44630890829819</v>
+        <v>72.84033218813499</v>
       </c>
       <c r="W2" t="n">
-        <v>54.44630890829819</v>
+        <v>72.84033218813499</v>
       </c>
       <c r="X2" t="n">
-        <v>54.44630890829819</v>
+        <v>59.21782689051989</v>
       </c>
       <c r="Y2" t="n">
-        <v>36.05228562846771</v>
+        <v>59.21782689051989</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.85082992359305</v>
+        <v>72.84033218813499</v>
       </c>
       <c r="C3" t="n">
-        <v>19.85082992359305</v>
+        <v>72.84033218813499</v>
       </c>
       <c r="D3" t="n">
-        <v>19.85082992359305</v>
+        <v>54.44630890830292</v>
       </c>
       <c r="E3" t="n">
-        <v>19.85082992359305</v>
+        <v>38.24485320342684</v>
       </c>
       <c r="F3" t="n">
-        <v>19.85082992359305</v>
+        <v>19.85082992359477</v>
       </c>
       <c r="G3" t="n">
-        <v>19.85082992359305</v>
+        <v>19.85082992359477</v>
       </c>
       <c r="H3" t="n">
-        <v>19.85082992359305</v>
+        <v>19.85082992359477</v>
       </c>
       <c r="I3" t="n">
-        <v>1.456806643762574</v>
+        <v>1.4568066437627</v>
       </c>
       <c r="J3" t="n">
-        <v>1.456806643762574</v>
+        <v>1.4568066437627</v>
       </c>
       <c r="K3" t="n">
-        <v>1.456806643762574</v>
+        <v>1.4568066437627</v>
       </c>
       <c r="L3" t="n">
-        <v>19.48478886032442</v>
+        <v>19.48478886032611</v>
       </c>
       <c r="M3" t="n">
-        <v>37.51277107688627</v>
+        <v>36.78436775500816</v>
       </c>
       <c r="N3" t="n">
-        <v>44.26685867885075</v>
+        <v>54.81234997157158</v>
       </c>
       <c r="O3" t="n">
-        <v>62.2948408954126</v>
+        <v>72.84033218813499</v>
       </c>
       <c r="P3" t="n">
-        <v>72.84033218812867</v>
+        <v>72.84033218813499</v>
       </c>
       <c r="Q3" t="n">
-        <v>72.84033218812867</v>
+        <v>72.84033218813499</v>
       </c>
       <c r="R3" t="n">
-        <v>54.44630890829819</v>
+        <v>72.84033218813499</v>
       </c>
       <c r="S3" t="n">
-        <v>54.44630890829819</v>
+        <v>72.84033218813499</v>
       </c>
       <c r="T3" t="n">
-        <v>54.44630890829819</v>
+        <v>72.84033218813499</v>
       </c>
       <c r="U3" t="n">
-        <v>54.44630890829819</v>
+        <v>72.84033218813499</v>
       </c>
       <c r="V3" t="n">
-        <v>54.44630890829819</v>
+        <v>72.84033218813499</v>
       </c>
       <c r="W3" t="n">
-        <v>38.24485320342352</v>
+        <v>72.84033218813499</v>
       </c>
       <c r="X3" t="n">
-        <v>38.24485320342352</v>
+        <v>72.84033218813499</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.85082992359305</v>
+        <v>72.84033218813499</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54.44630890829819</v>
+        <v>17.65826234863879</v>
       </c>
       <c r="C4" t="n">
-        <v>54.44630890829819</v>
+        <v>1.4568066437627</v>
       </c>
       <c r="D4" t="n">
-        <v>54.44630890829819</v>
+        <v>1.4568066437627</v>
       </c>
       <c r="E4" t="n">
-        <v>36.05228562846771</v>
+        <v>1.4568066437627</v>
       </c>
       <c r="F4" t="n">
-        <v>36.05228562846771</v>
+        <v>1.4568066437627</v>
       </c>
       <c r="G4" t="n">
-        <v>36.05228562846771</v>
+        <v>1.4568066437627</v>
       </c>
       <c r="H4" t="n">
-        <v>19.85082992359305</v>
+        <v>1.4568066437627</v>
       </c>
       <c r="I4" t="n">
-        <v>1.456806643762574</v>
+        <v>1.4568066437627</v>
       </c>
       <c r="J4" t="n">
-        <v>1.456806643762574</v>
+        <v>1.4568066437627</v>
       </c>
       <c r="K4" t="n">
-        <v>19.48478886032442</v>
+        <v>19.48478886032611</v>
       </c>
       <c r="L4" t="n">
-        <v>19.48478886032442</v>
+        <v>36.78436775500816</v>
       </c>
       <c r="M4" t="n">
-        <v>37.51277107688627</v>
+        <v>54.81234997157158</v>
       </c>
       <c r="N4" t="n">
-        <v>54.81234997156682</v>
+        <v>72.84033218813499</v>
       </c>
       <c r="O4" t="n">
-        <v>54.81234997156682</v>
+        <v>72.84033218813499</v>
       </c>
       <c r="P4" t="n">
-        <v>72.84033218812867</v>
+        <v>72.84033218813499</v>
       </c>
       <c r="Q4" t="n">
-        <v>72.84033218812867</v>
+        <v>72.84033218813499</v>
       </c>
       <c r="R4" t="n">
-        <v>54.44630890829819</v>
+        <v>72.84033218813499</v>
       </c>
       <c r="S4" t="n">
-        <v>54.44630890829819</v>
+        <v>54.44630890830292</v>
       </c>
       <c r="T4" t="n">
-        <v>54.44630890829819</v>
+        <v>36.05228562847086</v>
       </c>
       <c r="U4" t="n">
-        <v>54.44630890829819</v>
+        <v>17.65826234863879</v>
       </c>
       <c r="V4" t="n">
-        <v>54.44630890829819</v>
+        <v>17.65826234863879</v>
       </c>
       <c r="W4" t="n">
-        <v>54.44630890829819</v>
+        <v>17.65826234863879</v>
       </c>
       <c r="X4" t="n">
-        <v>54.44630890829819</v>
+        <v>17.65826234863879</v>
       </c>
       <c r="Y4" t="n">
-        <v>54.44630890829819</v>
+        <v>17.65826234863879</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>149.0274889416355</v>
+        <v>154.8775612504264</v>
       </c>
       <c r="C5" t="n">
-        <v>149.0274889416355</v>
+        <v>154.8775612504264</v>
       </c>
       <c r="D5" t="n">
-        <v>149.0274889416355</v>
+        <v>154.8775612504264</v>
       </c>
       <c r="E5" t="n">
-        <v>149.0274889416355</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="F5" t="n">
-        <v>104.5795743543409</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="G5" t="n">
-        <v>54.28158745825545</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="H5" t="n">
-        <v>54.28158745825545</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="I5" t="n">
         <v>3.98360056216997</v>
       </c>
       <c r="J5" t="n">
-        <v>3.98360056216997</v>
+        <v>46.41914195758014</v>
       </c>
       <c r="K5" t="n">
-        <v>3.98360056216997</v>
+        <v>46.41914195758014</v>
       </c>
       <c r="L5" t="n">
-        <v>53.28065751902335</v>
+        <v>62.2614493974929</v>
       </c>
       <c r="M5" t="n">
-        <v>102.5777144758767</v>
+        <v>111.5585063543463</v>
       </c>
       <c r="N5" t="n">
-        <v>151.8747714327301</v>
+        <v>160.8555633111997</v>
       </c>
       <c r="O5" t="n">
         <v>199.1800281084985</v>
@@ -4589,28 +4589,28 @@
         <v>199.1800281084985</v>
       </c>
       <c r="R5" t="n">
-        <v>149.0274889416355</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="S5" t="n">
-        <v>149.0274889416355</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="T5" t="n">
-        <v>149.0274889416355</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="U5" t="n">
-        <v>149.0274889416355</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="V5" t="n">
-        <v>149.0274889416355</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="W5" t="n">
-        <v>149.0274889416355</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="X5" t="n">
-        <v>149.0274889416355</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="Y5" t="n">
-        <v>149.0274889416355</v>
+        <v>199.1800281084985</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>54.28158745825545</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="C6" t="n">
-        <v>54.28158745825545</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="D6" t="n">
-        <v>54.28158745825545</v>
+        <v>154.8775612504264</v>
       </c>
       <c r="E6" t="n">
-        <v>54.28158745825545</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="F6" t="n">
-        <v>54.28158745825545</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="G6" t="n">
         <v>54.28158745825545</v>
@@ -4659,7 +4659,7 @@
         <v>148.900255631031</v>
       </c>
       <c r="O6" t="n">
-        <v>198.1973125878844</v>
+        <v>170.4401317516709</v>
       </c>
       <c r="P6" t="n">
         <v>199.1800281084985</v>
@@ -4668,28 +4668,28 @@
         <v>199.1800281084985</v>
       </c>
       <c r="R6" t="n">
-        <v>151.5453696056924</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="S6" t="n">
-        <v>151.5453696056924</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="T6" t="n">
-        <v>151.5453696056924</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="U6" t="n">
-        <v>151.5453696056924</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="V6" t="n">
-        <v>104.5795743543409</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="W6" t="n">
-        <v>104.5795743543409</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="X6" t="n">
-        <v>54.28158745825545</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="Y6" t="n">
-        <v>54.28158745825545</v>
+        <v>199.1800281084985</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>122.3808373555528</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="C7" t="n">
-        <v>97.47632513543981</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="D7" t="n">
-        <v>97.47632513543981</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="E7" t="n">
-        <v>97.47632513543981</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="F7" t="n">
-        <v>97.47632513543981</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="G7" t="n">
-        <v>97.47632513543981</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="H7" t="n">
-        <v>97.47632513543981</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="I7" t="n">
-        <v>47.17833823935432</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="J7" t="n">
         <v>3.98360056216997</v>
       </c>
       <c r="K7" t="n">
+        <v>3.98360056216997</v>
+      </c>
+      <c r="L7" t="n">
         <v>53.28065751902335</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>100.5859141947917</v>
-      </c>
-      <c r="M7" t="n">
-        <v>149.8829711516451</v>
       </c>
       <c r="N7" t="n">
         <v>149.8829711516451</v>
       </c>
       <c r="O7" t="n">
-        <v>149.8829711516451</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="P7" t="n">
         <v>199.1800281084985</v>
@@ -4750,25 +4750,25 @@
         <v>122.3808373555528</v>
       </c>
       <c r="S7" t="n">
-        <v>122.3808373555528</v>
+        <v>72.08285045946729</v>
       </c>
       <c r="T7" t="n">
-        <v>122.3808373555528</v>
+        <v>72.08285045946729</v>
       </c>
       <c r="U7" t="n">
-        <v>122.3808373555528</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="V7" t="n">
-        <v>122.3808373555528</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="W7" t="n">
-        <v>122.3808373555528</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="X7" t="n">
-        <v>122.3808373555528</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="Y7" t="n">
-        <v>122.3808373555528</v>
+        <v>54.28158745825545</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>305.2694365497923</v>
+      </c>
+      <c r="C8" t="n">
         <v>192.0243253124956</v>
       </c>
-      <c r="C8" t="n">
-        <v>78.77921407519902</v>
-      </c>
       <c r="D8" t="n">
-        <v>78.77921407519902</v>
+        <v>192.0243253124956</v>
       </c>
       <c r="E8" t="n">
-        <v>78.77921407519902</v>
+        <v>135.7380678296014</v>
       </c>
       <c r="F8" t="n">
-        <v>71.83371332599555</v>
+        <v>22.49295659230481</v>
       </c>
       <c r="G8" t="n">
         <v>8.969012809993892</v>
@@ -4805,10 +4805,10 @@
         <v>8.969012809993892</v>
       </c>
       <c r="K8" t="n">
-        <v>32.11753523687545</v>
+        <v>32.11753523687554</v>
       </c>
       <c r="L8" t="n">
-        <v>97.73708609773399</v>
+        <v>97.73708609773416</v>
       </c>
       <c r="M8" t="n">
         <v>202.4209174083929</v>
@@ -4844,10 +4844,10 @@
         <v>418.5145477870889</v>
       </c>
       <c r="X8" t="n">
+        <v>418.5145477870889</v>
+      </c>
+      <c r="Y8" t="n">
         <v>305.2694365497923</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>192.0243253124956</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>290.1431921679658</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="C9" t="n">
-        <v>176.8980809306692</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="D9" t="n">
-        <v>63.65296969337254</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="E9" t="n">
-        <v>63.65296969337254</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="F9" t="n">
-        <v>63.65296969337254</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="G9" t="n">
-        <v>63.65296969337254</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="H9" t="n">
-        <v>63.65296969337254</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="I9" t="n">
         <v>8.969012809993892</v>
@@ -4884,19 +4884,19 @@
         <v>8.969012809993892</v>
       </c>
       <c r="K9" t="n">
-        <v>8.969012809993892</v>
+        <v>36.22166818534551</v>
       </c>
       <c r="L9" t="n">
-        <v>91.93611230387162</v>
+        <v>119.1887676792232</v>
       </c>
       <c r="M9" t="n">
-        <v>202.927645827546</v>
+        <v>230.1803012028977</v>
       </c>
       <c r="N9" t="n">
-        <v>287.4309731640694</v>
+        <v>341.1718347265721</v>
       </c>
       <c r="O9" t="n">
-        <v>387.4830745953194</v>
+        <v>441.223936157822</v>
       </c>
       <c r="P9" t="n">
         <v>448.4506404996946</v>
@@ -4905,28 +4905,28 @@
         <v>448.4506404996946</v>
       </c>
       <c r="R9" t="n">
-        <v>448.4506404996946</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="S9" t="n">
-        <v>448.4506404996946</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="T9" t="n">
-        <v>448.4506404996946</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="U9" t="n">
-        <v>448.4506404996946</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="V9" t="n">
-        <v>448.4506404996946</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="W9" t="n">
-        <v>448.4506404996946</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="X9" t="n">
-        <v>448.4506404996946</v>
+        <v>298.2621726184665</v>
       </c>
       <c r="Y9" t="n">
-        <v>403.3883034052624</v>
+        <v>235.4592352845871</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.4474417764945</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="C10" t="n">
-        <v>155.2023305391979</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="D10" t="n">
-        <v>41.9572193019013</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="E10" t="n">
-        <v>41.9572193019013</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="F10" t="n">
-        <v>41.9572193019013</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="G10" t="n">
-        <v>41.9572193019013</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="H10" t="n">
-        <v>41.9572193019013</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="I10" t="n">
-        <v>41.9572193019013</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="J10" t="n">
         <v>8.969012809993892</v>
       </c>
       <c r="K10" t="n">
-        <v>85.67486684193852</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="L10" t="n">
-        <v>115.4760399286714</v>
+        <v>119.9605463336683</v>
       </c>
       <c r="M10" t="n">
-        <v>226.4675734523458</v>
+        <v>230.9520798573427</v>
       </c>
       <c r="N10" t="n">
-        <v>337.4591069760202</v>
+        <v>341.9436133810171</v>
       </c>
       <c r="O10" t="n">
         <v>448.4506404996946</v>
@@ -4990,22 +4990,22 @@
         <v>434.037948761593</v>
       </c>
       <c r="T10" t="n">
-        <v>434.037948761593</v>
+        <v>320.7928375242964</v>
       </c>
       <c r="U10" t="n">
-        <v>434.037948761593</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="V10" t="n">
-        <v>434.037948761593</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="W10" t="n">
-        <v>434.037948761593</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="X10" t="n">
-        <v>434.037948761593</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="Y10" t="n">
-        <v>381.6925530137912</v>
+        <v>235.4592352845871</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1190.127582679363</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C11" t="n">
-        <v>821.1650657389509</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D11" t="n">
-        <v>821.1650657389509</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E11" t="n">
-        <v>821.1650657389509</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V11" t="n">
-        <v>2678.274518176918</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W11" t="n">
-        <v>2325.505862906804</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X11" t="n">
-        <v>1952.040104645724</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="Y11" t="n">
-        <v>1576.727422743484</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228011</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031483</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5139,7 +5139,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125857</v>
@@ -5148,16 +5148,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>235.4482993600901</v>
+        <v>752.7622949738577</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218343</v>
+        <v>583.8261120459508</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218343</v>
+        <v>433.7094726336151</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218343</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5203,7 +5203,7 @@
         <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764915</v>
       </c>
       <c r="M13" t="n">
         <v>976.3387758760405</v>
@@ -5224,25 +5224,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U13" t="n">
-        <v>1224.739181610489</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V13" t="n">
-        <v>970.0546934046017</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W13" t="n">
-        <v>680.6375233676412</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X13" t="n">
-        <v>637.88934333386</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y13" t="n">
-        <v>417.0967641903298</v>
+        <v>934.4107598040974</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1602.287345209154</v>
+        <v>2095.346382501843</v>
       </c>
       <c r="C14" t="n">
-        <v>1233.324828268742</v>
+        <v>1726.383865561431</v>
       </c>
       <c r="D14" t="n">
-        <v>875.0591296619917</v>
+        <v>1368.118166954681</v>
       </c>
       <c r="E14" t="n">
-        <v>489.2708770637475</v>
+        <v>982.3299143564366</v>
       </c>
       <c r="F14" t="n">
-        <v>489.2708770637475</v>
+        <v>571.3440095668291</v>
       </c>
       <c r="G14" t="n">
-        <v>74.53055601169301</v>
+        <v>397.9052307464397</v>
       </c>
       <c r="H14" t="n">
-        <v>74.53055601169301</v>
+        <v>103.7230475307833</v>
       </c>
       <c r="I14" t="n">
-        <v>74.53055601169301</v>
+        <v>74.53055601169305</v>
       </c>
       <c r="J14" t="n">
-        <v>291.0377674773521</v>
+        <v>291.0377674773522</v>
       </c>
       <c r="K14" t="n">
-        <v>666.264472005599</v>
+        <v>666.2644720055996</v>
       </c>
       <c r="L14" t="n">
         <v>1168.6681406457</v>
@@ -5288,40 +5288,40 @@
         <v>1759.358462275287</v>
       </c>
       <c r="N14" t="n">
-        <v>2364.220579235392</v>
+        <v>2364.220579235393</v>
       </c>
       <c r="O14" t="n">
-        <v>2922.039463163075</v>
+        <v>2922.039463163076</v>
       </c>
       <c r="P14" t="n">
-        <v>3363.623974140404</v>
+        <v>3363.623974140406</v>
       </c>
       <c r="Q14" t="n">
-        <v>3647.062805049514</v>
+        <v>3647.062805049516</v>
       </c>
       <c r="R14" t="n">
-        <v>3726.52780058465</v>
+        <v>3726.527800584652</v>
       </c>
       <c r="S14" t="n">
-        <v>3726.52780058465</v>
+        <v>3623.805524045198</v>
       </c>
       <c r="T14" t="n">
-        <v>3689.827724521781</v>
+        <v>3419.281671577579</v>
       </c>
       <c r="U14" t="n">
-        <v>3436.323818123853</v>
+        <v>3165.777765179651</v>
       </c>
       <c r="V14" t="n">
-        <v>3105.260930780282</v>
+        <v>2834.714877836081</v>
       </c>
       <c r="W14" t="n">
-        <v>2752.492275510167</v>
+        <v>2481.946222565965</v>
       </c>
       <c r="X14" t="n">
-        <v>2379.026517249087</v>
+        <v>2481.946222565965</v>
       </c>
       <c r="Y14" t="n">
-        <v>1988.887185273276</v>
+        <v>2481.946222565965</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>87.41950470718614</v>
       </c>
       <c r="I15" t="n">
-        <v>74.53055601169301</v>
+        <v>74.53055601169305</v>
       </c>
       <c r="J15" t="n">
-        <v>83.59666915367274</v>
+        <v>184.6629209807619</v>
       </c>
       <c r="K15" t="n">
-        <v>349.9852472357397</v>
+        <v>451.0514990628291</v>
       </c>
       <c r="L15" t="n">
-        <v>754.5001060146201</v>
+        <v>855.5663578417098</v>
       </c>
       <c r="M15" t="n">
-        <v>1245.906734648576</v>
+        <v>1346.972986475666</v>
       </c>
       <c r="N15" t="n">
-        <v>1764.728079432161</v>
+        <v>1865.794331259251</v>
       </c>
       <c r="O15" t="n">
-        <v>2217.128454733394</v>
+        <v>2318.194706560485</v>
       </c>
       <c r="P15" t="n">
         <v>2560.886573990975</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>483.2020781388678</v>
+        <v>566.8646164589902</v>
       </c>
       <c r="C16" t="n">
-        <v>314.2658952109609</v>
+        <v>397.9284335310833</v>
       </c>
       <c r="D16" t="n">
-        <v>314.2658952109609</v>
+        <v>334.9298026567013</v>
       </c>
       <c r="E16" t="n">
-        <v>314.2658952109609</v>
+        <v>334.9298026567013</v>
       </c>
       <c r="F16" t="n">
-        <v>167.3759477130506</v>
+        <v>334.9298026567013</v>
       </c>
       <c r="G16" t="n">
         <v>167.3759477130506</v>
@@ -5431,55 +5431,55 @@
         <v>167.3759477130506</v>
       </c>
       <c r="I16" t="n">
-        <v>74.53055601169301</v>
+        <v>74.53055601169305</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9765865525472</v>
+        <v>129.9765865525473</v>
       </c>
       <c r="K16" t="n">
-        <v>350.9282837923172</v>
+        <v>350.9282837923174</v>
       </c>
       <c r="L16" t="n">
-        <v>689.1968198553107</v>
+        <v>689.196819855311</v>
       </c>
       <c r="M16" t="n">
         <v>1056.242685479733</v>
       </c>
       <c r="N16" t="n">
-        <v>1419.995637229307</v>
+        <v>1419.995637229308</v>
       </c>
       <c r="O16" t="n">
-        <v>1739.964067776858</v>
+        <v>1739.964067776859</v>
       </c>
       <c r="P16" t="n">
-        <v>1990.231654135873</v>
+        <v>1990.231654135874</v>
       </c>
       <c r="Q16" t="n">
-        <v>2080.068878389595</v>
+        <v>2080.068878389596</v>
       </c>
       <c r="R16" t="n">
-        <v>2080.068878389595</v>
+        <v>1996.937179304787</v>
       </c>
       <c r="S16" t="n">
-        <v>1947.166550047021</v>
+        <v>1996.937179304787</v>
       </c>
       <c r="T16" t="n">
-        <v>1726.036492710785</v>
+        <v>1775.807121968551</v>
       </c>
       <c r="U16" t="n">
-        <v>1436.941752109972</v>
+        <v>1486.712381367738</v>
       </c>
       <c r="V16" t="n">
-        <v>1182.257263904085</v>
+        <v>1486.712381367738</v>
       </c>
       <c r="W16" t="n">
-        <v>892.8400938671248</v>
+        <v>1197.295211330777</v>
       </c>
       <c r="X16" t="n">
-        <v>664.8505429691076</v>
+        <v>969.3056604327601</v>
       </c>
       <c r="Y16" t="n">
-        <v>664.8505429691076</v>
+        <v>748.5130812892299</v>
       </c>
     </row>
     <row r="17">
@@ -5501,22 +5501,22 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G17" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J17" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951459</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L17" t="n">
         <v>1336.032957050963</v>
@@ -5528,34 +5528,34 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437412</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501801</v>
       </c>
       <c r="Y17" t="n">
         <v>2476.13298385146</v>
@@ -5586,28 +5586,28 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H18" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J18" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K18" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L18" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M18" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N18" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O18" t="n">
-        <v>1934.929714729833</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="P18" t="n">
         <v>2322.031270281989</v>
@@ -5647,49 +5647,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C19" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477712</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609041</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039795</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315378</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749436</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897923</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M19" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N19" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P19" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q19" t="n">
         <v>2529.521427597205</v>
@@ -5698,22 +5698,22 @@
         <v>2487.049233352543</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y19" t="n">
         <v>1022.581387254981</v>
@@ -5738,10 +5738,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G20" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H20" t="n">
         <v>84.98040897511622</v>
@@ -5753,16 +5753,16 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M20" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O20" t="n">
         <v>3311.067850233288</v>
@@ -5789,13 +5789,13 @@
         <v>3496.71823738206</v>
       </c>
       <c r="W20" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J21" t="n">
-        <v>147.5315942576216</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K21" t="n">
-        <v>450.5726436074859</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L21" t="n">
-        <v>904.3712732018133</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M21" t="n">
-        <v>1453.289737812102</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N21" t="n">
-        <v>1453.289737812102</v>
+        <v>1637.372701792863</v>
       </c>
       <c r="O21" t="n">
-        <v>1959.694692760353</v>
+        <v>2143.777656741113</v>
       </c>
       <c r="P21" t="n">
-        <v>2346.796248312508</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="Q21" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R21" t="n">
         <v>2555.644190323788</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502106</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477723</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609052</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039808</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315391</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749449</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897936</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I22" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042787</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443609</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M22" t="n">
         <v>1285.552079040893</v>
@@ -5923,7 +5923,7 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O22" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P22" t="n">
         <v>2392.455631028688</v>
@@ -5953,7 +5953,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y22" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="23">
@@ -5972,13 +5972,13 @@
         <v>1458.093420216581</v>
       </c>
       <c r="E23" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796662</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H23" t="n">
         <v>84.98040897511622</v>
@@ -5990,7 +5990,7 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951452</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L23" t="n">
         <v>1336.032957050963</v>
@@ -6014,19 +6014,19 @@
         <v>4249.020448755811</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X23" t="n">
         <v>2834.342818501802</v>
@@ -6066,28 +6066,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J24" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K24" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L24" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M24" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N24" t="n">
-        <v>1428.524759781583</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="O24" t="n">
-        <v>1934.929714729833</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P24" t="n">
-        <v>2322.031270281989</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q24" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R24" t="n">
         <v>2555.644190323788</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F25" t="n">
         <v>386.7245456315385</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H25" t="n">
         <v>140.0574709897931</v>
@@ -6145,7 +6145,7 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K25" t="n">
         <v>459.5287020443611</v>
@@ -6163,10 +6163,10 @@
         <v>2087.878830313935</v>
       </c>
       <c r="P25" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R25" t="n">
         <v>2487.049233352543</v>
@@ -6175,10 +6175,10 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V25" t="n">
         <v>1664.992195357083</v>
@@ -6187,7 +6187,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y25" t="n">
         <v>1022.581387254981</v>
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D26" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E26" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796667</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162835</v>
       </c>
       <c r="H26" t="n">
         <v>84.98040897511622</v>
@@ -6227,25 +6227,25 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L26" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050965</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O26" t="n">
         <v>3311.067850233288</v>
       </c>
       <c r="P26" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R26" t="n">
         <v>4249.020448755811</v>
@@ -6257,16 +6257,16 @@
         <v>4017.391409283565</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W26" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y26" t="n">
         <v>2476.132983851459</v>
@@ -6303,25 +6303,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J27" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K27" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L27" t="n">
-        <v>538.7790385694436</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M27" t="n">
-        <v>1087.697503179733</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N27" t="n">
-        <v>1665.552851106135</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O27" t="n">
-        <v>2171.957806054385</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P27" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q27" t="n">
         <v>2555.644190323788</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477712</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609041</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039796</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315379</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749437</v>
       </c>
       <c r="H28" t="n">
         <v>140.0574709897931</v>
@@ -6382,19 +6382,19 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443612</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M28" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O28" t="n">
         <v>2087.878830313935</v>
@@ -6403,7 +6403,7 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R28" t="n">
         <v>2487.049233352542</v>
@@ -6412,7 +6412,7 @@
         <v>2333.272818966195</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U28" t="n">
         <v>1887.747186237501</v>
@@ -6446,10 +6446,10 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G29" t="n">
         <v>342.8002736162839</v>
@@ -6464,49 +6464,49 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K29" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050965</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O29" t="n">
         <v>3311.067850233288</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R29" t="n">
         <v>4249.020448755811</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W29" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J30" t="n">
-        <v>216.5575109835859</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="K30" t="n">
-        <v>519.5985603334502</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="L30" t="n">
-        <v>973.3971899277776</v>
+        <v>538.7790385694436</v>
       </c>
       <c r="M30" t="n">
-        <v>1522.315654538067</v>
+        <v>1087.697503179733</v>
       </c>
       <c r="N30" t="n">
-        <v>2100.171002464469</v>
+        <v>1428.524759781583</v>
       </c>
       <c r="O30" t="n">
-        <v>2555.644190323788</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P30" t="n">
-        <v>2555.644190323788</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q30" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R30" t="n">
         <v>2555.644190323788</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502087</v>
+        <v>872.8624197502101</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477704</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609032</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039787</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315369</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749427</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897915</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I31" t="n">
         <v>84.98040897511622</v>
@@ -6640,31 +6640,31 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R31" t="n">
         <v>2487.049233352542</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073041</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="32">
@@ -6683,7 +6683,7 @@
         <v>1458.093420216581</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
         <v>725.1782574796671</v>
@@ -6704,7 +6704,7 @@
         <v>766.683188695145</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M32" t="n">
         <v>2001.213713746738</v>
@@ -6743,7 +6743,7 @@
         <v>2834.342818501802</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>84.98040897511619</v>
       </c>
       <c r="J33" t="n">
-        <v>84.98040897511619</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K33" t="n">
-        <v>84.98040897511619</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L33" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M33" t="n">
-        <v>850.6694118551806</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N33" t="n">
-        <v>1428.524759781583</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O33" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P33" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q33" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R33" t="n">
         <v>2555.644190323788</v>
@@ -6859,40 +6859,40 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K34" t="n">
-        <v>459.528702044358</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902756</v>
+        <v>857.382767690279</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.55207904089</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.71920135497</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313933</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.455631028686</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597203</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352541</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966194</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.7471862375</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357085</v>
       </c>
       <c r="W34" t="n">
         <v>1407.50452264559</v>
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C35" t="n">
         <v>1784.429621497863</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796665</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H35" t="n">
         <v>84.98040897511622</v>
@@ -6935,10 +6935,10 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K35" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L35" t="n">
         <v>1336.032957050963</v>
@@ -6950,7 +6950,7 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P35" t="n">
         <v>3813.656640612703</v>
@@ -6962,7 +6962,7 @@
         <v>4249.020448755811</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T35" t="n">
         <v>4017.391409283564</v>
@@ -6977,10 +6977,10 @@
         <v>3175.879079437414</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J36" t="n">
-        <v>93.82973291098881</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K36" t="n">
-        <v>396.8707822608532</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L36" t="n">
-        <v>850.6694118551806</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M36" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N36" t="n">
-        <v>1428.524759781583</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O36" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P36" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q36" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R36" t="n">
         <v>2555.644190323788</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F37" t="n">
         <v>386.7245456315385</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H37" t="n">
         <v>140.0574709897931</v>
@@ -7093,13 +7093,13 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K37" t="n">
         <v>459.5287020443611</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M37" t="n">
         <v>1285.552079040893</v>
@@ -7117,25 +7117,25 @@
         <v>2529.521427597205</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W37" t="n">
         <v>1407.504522645592</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y37" t="n">
         <v>1022.581387254981</v>
@@ -7151,7 +7151,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C38" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D38" t="n">
         <v>1458.093420216582</v>
@@ -7160,10 +7160,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H38" t="n">
         <v>84.98040897511622</v>
@@ -7175,7 +7175,7 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951452</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L38" t="n">
         <v>1336.032957050963</v>
@@ -7187,7 +7187,7 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P38" t="n">
         <v>3813.656640612703</v>
@@ -7202,22 +7202,22 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W38" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="39">
@@ -7251,16 +7251,16 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J39" t="n">
-        <v>165.6257438946549</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K39" t="n">
-        <v>468.6667932445192</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L39" t="n">
-        <v>922.4654228388466</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M39" t="n">
-        <v>1471.383887449136</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
         <v>2049.239235375538</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502113</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477731</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D40" t="n">
-        <v>617.668592060906</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039816</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H40" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I40" t="n">
         <v>84.98040897511622</v>
@@ -7333,49 +7333,49 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902789</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N40" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S40" t="n">
         <v>2333.272818966196</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073044</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y40" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C41" t="n">
         <v>1784.429621497863</v>
       </c>
       <c r="D41" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E41" t="n">
         <v>1104.234664943806</v>
@@ -7400,61 +7400,61 @@
         <v>725.1782574796671</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J41" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951441</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L41" t="n">
         <v>1336.032957050962</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W41" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H42" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J42" t="n">
-        <v>93.82973291098881</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K42" t="n">
-        <v>396.8707822608532</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L42" t="n">
-        <v>850.6694118551806</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M42" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N42" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O42" t="n">
-        <v>1934.929714729833</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="P42" t="n">
-        <v>2322.031270281989</v>
+        <v>2487.272558016625</v>
       </c>
       <c r="Q42" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502124</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477722</v>
+        <v>735.8557341477742</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609051</v>
+        <v>617.6685920609073</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039807</v>
+        <v>501.6849958039829</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315389</v>
+        <v>386.7245456315413</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749449</v>
+        <v>251.2943450749473</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897937</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L43" t="n">
         <v>857.3827676902786</v>
@@ -7582,37 +7582,37 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O43" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P43" t="n">
         <v>2392.455631028689</v>
       </c>
       <c r="Q43" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357085</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645593</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073045</v>
       </c>
       <c r="Y43" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254983</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C44" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D44" t="n">
         <v>1458.093420216582</v>
@@ -7634,10 +7634,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796672</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G44" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H44" t="n">
         <v>84.98040897511622</v>
@@ -7673,22 +7673,22 @@
         <v>4249.020448755811</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T44" t="n">
         <v>4017.391409283564</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W44" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y44" t="n">
         <v>2476.13298385146</v>
@@ -7725,22 +7725,22 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J45" t="n">
-        <v>216.5575109835859</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="K45" t="n">
-        <v>519.5985603334502</v>
+        <v>388.0214583249806</v>
       </c>
       <c r="L45" t="n">
-        <v>973.3971899277776</v>
+        <v>841.820087919308</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.315654538067</v>
+        <v>1390.738552529597</v>
       </c>
       <c r="N45" t="n">
-        <v>1662.137679823382</v>
+        <v>1968.593900456</v>
       </c>
       <c r="O45" t="n">
-        <v>2168.542634771632</v>
+        <v>2474.99885540425</v>
       </c>
       <c r="P45" t="n">
         <v>2555.644190323788</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502116</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477734</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609065</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E46" t="n">
-        <v>501.684995803982</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H46" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I46" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902785</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M46" t="n">
         <v>1285.552079040893</v>
@@ -7837,19 +7837,19 @@
         <v>2144.901839127669</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357085</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645593</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.444469073044</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y46" t="n">
-        <v>1022.581387254983</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>60.90377530107686</v>
+        <v>60.90377530107611</v>
       </c>
       <c r="K2" t="n">
-        <v>40.02794296996191</v>
+        <v>40.02794296996078</v>
       </c>
       <c r="L2" t="n">
-        <v>30.59377888689546</v>
+        <v>12.3836958398619</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.070085188520284</v>
+        <v>9.070085188520292</v>
       </c>
       <c r="P2" t="n">
-        <v>27.67667403855307</v>
+        <v>45.88675708558554</v>
       </c>
       <c r="Q2" t="n">
-        <v>69.44336957621798</v>
+        <v>69.44336957621701</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>55.28179755587566</v>
+        <v>55.2817975558752</v>
       </c>
       <c r="K3" t="n">
-        <v>15.54112977924302</v>
+        <v>15.54112977924224</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>43.30284318957</v>
+        <v>43.30284318956939</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>73.45227819721494</v>
+        <v>73.45227819721606</v>
       </c>
       <c r="L4" t="n">
-        <v>40.48311410323774</v>
+        <v>57.95743621907759</v>
       </c>
       <c r="M4" t="n">
-        <v>57.60265575364033</v>
+        <v>57.60265575364129</v>
       </c>
       <c r="N4" t="n">
-        <v>47.99333263572029</v>
+        <v>48.72909356691449</v>
       </c>
       <c r="O4" t="n">
-        <v>48.70751749406165</v>
+        <v>48.70751749406108</v>
       </c>
       <c r="P4" t="n">
-        <v>79.14229504431975</v>
+        <v>60.93221199728711</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>45.63689302957772</v>
+        <v>88.50107625726477</v>
       </c>
       <c r="K5" t="n">
         <v>17.14684397594775</v>
       </c>
       <c r="L5" t="n">
-        <v>33.792676279738</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>9.071506947949025</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>1.810057396252972</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>95.66285413274987</v>
+        <v>45.86784710562524</v>
       </c>
       <c r="L7" t="n">
-        <v>76.27026363255541</v>
+        <v>78.28218310839884</v>
       </c>
       <c r="M7" t="n">
-        <v>76.53954504419404</v>
+        <v>74.5276255683506</v>
       </c>
       <c r="N7" t="n">
-        <v>18.17171782551226</v>
+        <v>67.96672485263689</v>
       </c>
       <c r="O7" t="n">
-        <v>37.30279422357805</v>
+        <v>87.09780125070267</v>
       </c>
       <c r="P7" t="n">
-        <v>100.9685080396866</v>
+        <v>51.173501012562</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8611,10 +8611,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7437663446525</v>
+        <v>29.26310570632462</v>
       </c>
       <c r="L10" t="n">
-        <v>37.34101893964862</v>
+        <v>119.3514840274684</v>
       </c>
       <c r="M10" t="n">
         <v>116.4537900083357</v>
@@ -8623,7 +8623,7 @@
         <v>108.4136727881176</v>
       </c>
       <c r="O10" t="n">
-        <v>129.2143182548924</v>
+        <v>124.6845138054006</v>
       </c>
       <c r="P10" t="n">
         <v>33.88793923037925</v>
@@ -23261,19 +23261,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>14.67838357283632</v>
+        <v>180.7232440139072</v>
       </c>
     </row>
     <row r="12">
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>73.08464294440387</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>183.3889571555938</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23504,16 +23504,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>238.8885268093485</v>
       </c>
       <c r="H14" t="n">
-        <v>291.2403613834999</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>28.90056660389942</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>101.6950537740602</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>166.1455386407015</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23656,16 +23656,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>86.24682845257421</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.8783163942143</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>143.4436781526118</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>82.30038209396095</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>55.62533931912841</v>
+        <v>187.1986443782762</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>2.074784788419493e-12</v>
       </c>
     </row>
     <row r="18">
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>2.131628207280301e-13</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24731,7 +24731,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.698197138466639e-12</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -26032,7 +26032,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.552639511220026e-12</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>911906.1975800062</v>
+        <v>911906.1975800066</v>
       </c>
     </row>
     <row r="7">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>410520.8849321411</v>
+        <v>410520.8849321415</v>
       </c>
       <c r="C2" t="n">
-        <v>410520.8849321417</v>
+        <v>410520.8849321415</v>
       </c>
       <c r="D2" t="n">
-        <v>410520.8849321418</v>
+        <v>410520.8849321415</v>
       </c>
       <c r="E2" t="n">
-        <v>340997.0989709207</v>
+        <v>340997.0989709208</v>
       </c>
       <c r="F2" t="n">
-        <v>359394.9721398941</v>
+        <v>359394.9721398943</v>
       </c>
       <c r="G2" t="n">
         <v>410520.884932142</v>
@@ -26332,7 +26332,7 @@
         <v>410520.884932142</v>
       </c>
       <c r="I2" t="n">
-        <v>410520.8849321423</v>
+        <v>410520.8849321422</v>
       </c>
       <c r="J2" t="n">
         <v>410520.8849321419</v>
@@ -26341,19 +26341,19 @@
         <v>410520.884932142</v>
       </c>
       <c r="L2" t="n">
-        <v>410520.8849321422</v>
+        <v>410520.884932142</v>
       </c>
       <c r="M2" t="n">
+        <v>410520.884932142</v>
+      </c>
+      <c r="N2" t="n">
+        <v>410520.884932142</v>
+      </c>
+      <c r="O2" t="n">
+        <v>410520.884932142</v>
+      </c>
+      <c r="P2" t="n">
         <v>410520.8849321419</v>
-      </c>
-      <c r="N2" t="n">
-        <v>410520.8849321419</v>
-      </c>
-      <c r="O2" t="n">
-        <v>410520.8849321419</v>
-      </c>
-      <c r="P2" t="n">
-        <v>410520.884932142</v>
       </c>
     </row>
     <row r="3">
@@ -26363,49 +26363,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>345405.597032183</v>
+        <v>345405.5970321856</v>
       </c>
       <c r="C3" t="n">
-        <v>50948.63134876455</v>
+        <v>50948.63134876204</v>
       </c>
       <c r="D3" t="n">
         <v>87233.51607513236</v>
       </c>
       <c r="E3" t="n">
-        <v>707780.8576429539</v>
+        <v>707780.8576429536</v>
       </c>
       <c r="F3" t="n">
-        <v>93369.88484654325</v>
+        <v>93369.88484654395</v>
       </c>
       <c r="G3" t="n">
-        <v>143964.0818975332</v>
+        <v>143964.0818975326</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.22694927995326e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4764.558968757685</v>
+        <v>4764.558968758098</v>
       </c>
       <c r="K3" t="n">
-        <v>8128.948714908385</v>
+        <v>8128.948714908029</v>
       </c>
       <c r="L3" t="n">
-        <v>41060.19902194624</v>
+        <v>41060.19902194619</v>
       </c>
       <c r="M3" t="n">
         <v>179249.6449383015</v>
       </c>
       <c r="N3" t="n">
-        <v>24549.15438613186</v>
+        <v>24549.15438613192</v>
       </c>
       <c r="O3" t="n">
-        <v>31434.59456875946</v>
+        <v>31434.59456875929</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.183470885735005e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348159.5487171865</v>
+        <v>348159.5487171857</v>
       </c>
       <c r="C4" t="n">
         <v>332624.1818074201</v>
@@ -26430,34 +26430,34 @@
         <v>14091.87843567592</v>
       </c>
       <c r="G4" t="n">
+        <v>45229.37087109617</v>
+      </c>
+      <c r="H4" t="n">
+        <v>45229.37087109617</v>
+      </c>
+      <c r="I4" t="n">
+        <v>45229.37087109618</v>
+      </c>
+      <c r="J4" t="n">
+        <v>45229.37087109617</v>
+      </c>
+      <c r="K4" t="n">
+        <v>45229.37087109617</v>
+      </c>
+      <c r="L4" t="n">
+        <v>45229.37087109632</v>
+      </c>
+      <c r="M4" t="n">
         <v>45229.37087109619</v>
       </c>
-      <c r="H4" t="n">
+      <c r="N4" t="n">
+        <v>45229.37087109618</v>
+      </c>
+      <c r="O4" t="n">
+        <v>45229.37087109632</v>
+      </c>
+      <c r="P4" t="n">
         <v>45229.37087109619</v>
-      </c>
-      <c r="I4" t="n">
-        <v>45229.37087109619</v>
-      </c>
-      <c r="J4" t="n">
-        <v>45229.37087109619</v>
-      </c>
-      <c r="K4" t="n">
-        <v>45229.37087109614</v>
-      </c>
-      <c r="L4" t="n">
-        <v>45229.37087109625</v>
-      </c>
-      <c r="M4" t="n">
-        <v>45229.37087109617</v>
-      </c>
-      <c r="N4" t="n">
-        <v>45229.37087109626</v>
-      </c>
-      <c r="O4" t="n">
-        <v>45229.37087109619</v>
-      </c>
-      <c r="P4" t="n">
-        <v>45229.37087109626</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42410.88882425681</v>
+        <v>42410.88882425696</v>
       </c>
       <c r="C5" t="n">
         <v>45306.68319048216</v>
@@ -26476,22 +26476,22 @@
         <v>50823.37311172271</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>82183.39720390705</v>
+        <v>82183.39720390709</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215525</v>
       </c>
       <c r="H5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="I5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="J5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="K5" t="n">
         <v>95106.43410215527</v>
@@ -26503,10 +26503,10 @@
         <v>95106.43410215527</v>
       </c>
       <c r="N5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="O5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="P5" t="n">
         <v>95106.43410215528</v>
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-325455.1496414852</v>
+        <v>-325455.1496414869</v>
       </c>
       <c r="C6" t="n">
-        <v>-18358.61141452515</v>
+        <v>-18358.61141452276</v>
       </c>
       <c r="D6" t="n">
-        <v>-32388.01678549592</v>
+        <v>-32388.01678549615</v>
       </c>
       <c r="E6" t="n">
-        <v>-455130.1100906041</v>
+        <v>-455477.7290204099</v>
       </c>
       <c r="F6" t="n">
-        <v>169749.8116537679</v>
+        <v>169494.1820898061</v>
       </c>
       <c r="G6" t="n">
-        <v>126220.9980613573</v>
+        <v>126220.998061358</v>
       </c>
       <c r="H6" t="n">
         <v>270185.0799588905</v>
@@ -26543,25 +26543,25 @@
         <v>270185.0799588908</v>
       </c>
       <c r="J6" t="n">
-        <v>265420.5209901328</v>
+        <v>265420.5209901324</v>
       </c>
       <c r="K6" t="n">
-        <v>262056.1312439822</v>
+        <v>262056.1312439825</v>
       </c>
       <c r="L6" t="n">
-        <v>229124.8809369444</v>
+        <v>229124.8809369443</v>
       </c>
       <c r="M6" t="n">
-        <v>90935.43502058898</v>
+        <v>90935.4350205891</v>
       </c>
       <c r="N6" t="n">
-        <v>245635.9255727585</v>
+        <v>245635.9255727587</v>
       </c>
       <c r="O6" t="n">
-        <v>238750.485390131</v>
+        <v>238750.4853901312</v>
       </c>
       <c r="P6" t="n">
-        <v>270185.0799588904</v>
+        <v>270185.0799588903</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>31.61020235221392</v>
+      </c>
+      <c r="H2" t="n">
+        <v>31.61020235221392</v>
+      </c>
+      <c r="I2" t="n">
+        <v>31.61020235221392</v>
+      </c>
+      <c r="J2" t="n">
+        <v>31.61020235221393</v>
+      </c>
+      <c r="K2" t="n">
+        <v>31.61020235221393</v>
+      </c>
+      <c r="L2" t="n">
+        <v>31.61020235221407</v>
+      </c>
+      <c r="M2" t="n">
+        <v>31.61020235221394</v>
+      </c>
+      <c r="N2" t="n">
+        <v>31.61020235221394</v>
+      </c>
+      <c r="O2" t="n">
+        <v>31.61020235221407</v>
+      </c>
+      <c r="P2" t="n">
         <v>31.61020235221395</v>
-      </c>
-      <c r="H2" t="n">
-        <v>31.61020235221395</v>
-      </c>
-      <c r="I2" t="n">
-        <v>31.61020235221395</v>
-      </c>
-      <c r="J2" t="n">
-        <v>31.61020235221395</v>
-      </c>
-      <c r="K2" t="n">
-        <v>31.61020235221389</v>
-      </c>
-      <c r="L2" t="n">
-        <v>31.61020235221406</v>
-      </c>
-      <c r="M2" t="n">
-        <v>31.61020235221391</v>
-      </c>
-      <c r="N2" t="n">
-        <v>31.61020235221402</v>
-      </c>
-      <c r="O2" t="n">
-        <v>31.61020235221396</v>
-      </c>
-      <c r="P2" t="n">
-        <v>31.61020235221402</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>352.1154025228099</v>
+        <v>352.1154025228121</v>
       </c>
       <c r="C3" t="n">
         <v>396.859943267568</v>
@@ -26744,7 +26744,7 @@
         <v>476.1157511985022</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1171.567643808274</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.21008304703217</v>
+        <v>18.21008304703375</v>
       </c>
       <c r="C4" t="n">
         <v>49.79500702712463</v>
@@ -26796,13 +26796,13 @@
         <v>112.1126601249237</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>931.6319501461626</v>
+        <v>931.631950146163</v>
       </c>
       <c r="G4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="H4" t="n">
         <v>1062.255112188953</v>
@@ -26826,7 +26826,7 @@
         <v>1062.255112188953</v>
       </c>
       <c r="O4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="P4" t="n">
         <v>1062.255112188953</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,19 +26935,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>-1.27897692436818e-13</v>
       </c>
       <c r="N2" t="n">
-        <v>1.06581410364015e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.314504061156185e-13</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>-1.20792265079217e-13</v>
       </c>
     </row>
     <row r="3">
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>352.1154025228099</v>
+        <v>352.1154025228121</v>
       </c>
       <c r="C3" t="n">
-        <v>44.74454074475813</v>
+        <v>44.74454074475591</v>
       </c>
       <c r="D3" t="n">
         <v>79.25580793093417</v>
       </c>
       <c r="E3" t="n">
-        <v>613.6609493947963</v>
+        <v>613.660949394796</v>
       </c>
       <c r="F3" t="n">
-        <v>81.79094321497541</v>
+        <v>81.7909432149761</v>
       </c>
       <c r="G3" t="n">
-        <v>106.5922268118488</v>
+        <v>106.5922268118484</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,49 +27009,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.21008304703217</v>
+        <v>18.21008304703375</v>
       </c>
       <c r="C4" t="n">
-        <v>31.58492398009246</v>
+        <v>31.58492398009088</v>
       </c>
       <c r="D4" t="n">
         <v>62.31765309779902</v>
       </c>
       <c r="E4" t="n">
-        <v>719.2887952773692</v>
+        <v>719.2887952773691</v>
       </c>
       <c r="F4" t="n">
-        <v>100.2304947438697</v>
+        <v>100.2304947438703</v>
       </c>
       <c r="G4" t="n">
-        <v>130.6231620427902</v>
+        <v>130.6231620427893</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.21008304703217</v>
+        <v>18.21008304703375</v>
       </c>
       <c r="K4" t="n">
-        <v>31.58492398009246</v>
+        <v>31.58492398009088</v>
       </c>
       <c r="L4" t="n">
         <v>62.31765309779857</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773697</v>
+        <v>719.2887952773696</v>
       </c>
       <c r="N4" t="n">
-        <v>100.2304947438697</v>
+        <v>100.2304947438703</v>
       </c>
       <c r="O4" t="n">
-        <v>130.6231620427902</v>
+        <v>130.6231620427889</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,25 +27255,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.21008304703217</v>
+        <v>18.21008304703375</v>
       </c>
       <c r="K4" t="n">
-        <v>31.58492398009246</v>
+        <v>31.58492398009088</v>
       </c>
       <c r="L4" t="n">
         <v>62.31765309779902</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773692</v>
+        <v>719.2887952773691</v>
       </c>
       <c r="N4" t="n">
-        <v>100.2304947438697</v>
+        <v>100.2304947438703</v>
       </c>
       <c r="O4" t="n">
-        <v>130.6231620427902</v>
+        <v>130.6231620427893</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>347.0628087239738</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>388.6659626946793</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.8477570606848</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>324.9779101918004</v>
+        <v>324.9779101918003</v>
       </c>
       <c r="I2" t="n">
-        <v>155.9033104517702</v>
+        <v>137.6932274047361</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>42.74016392437497</v>
+        <v>60.95024697140657</v>
       </c>
       <c r="S2" t="n">
-        <v>176.7634676365427</v>
+        <v>176.7634676365425</v>
       </c>
       <c r="T2" t="n">
         <v>216.8993262493832</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>356.2448204338301</v>
       </c>
       <c r="Y2" t="n">
-        <v>368.0278556090214</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27461,22 +27461,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>129.234982517605</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>141.6056393075736</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>126.8591293463501</v>
       </c>
       <c r="G3" t="n">
         <v>136.5861368634446</v>
       </c>
       <c r="H3" t="n">
-        <v>104.9207450255981</v>
+        <v>104.920745025598</v>
       </c>
       <c r="I3" t="n">
-        <v>45.11007895717481</v>
+        <v>45.11007895717307</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>34.92373565171569</v>
+        <v>53.13381869874756</v>
       </c>
       <c r="S3" t="n">
-        <v>157.6151642200256</v>
+        <v>157.6151642200255</v>
       </c>
       <c r="T3" t="n">
         <v>197.1119545918172</v>
@@ -27518,13 +27518,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>235.6555420130937</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.4726127302722</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>151.2073799508005</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.223879599537</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27552,13 @@
         <v>167.3560171571881</v>
       </c>
       <c r="H4" t="n">
-        <v>140.5423401519529</v>
+        <v>156.5817812997788</v>
       </c>
       <c r="I4" t="n">
-        <v>118.1453467729236</v>
+        <v>136.3554298199556</v>
       </c>
       <c r="J4" t="n">
-        <v>48.46735248683848</v>
+        <v>48.46735248683819</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>32.99261747075009</v>
+        <v>32.99261747074976</v>
       </c>
       <c r="R4" t="n">
-        <v>130.5330988075502</v>
+        <v>148.7431818545821</v>
       </c>
       <c r="S4" t="n">
-        <v>212.9509385839194</v>
+        <v>194.7408555368855</v>
       </c>
       <c r="T4" t="n">
-        <v>225.2325691137615</v>
+        <v>207.0224860667277</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2843950546034</v>
+        <v>268.0743120075696</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>338.8743994739892</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,10 +27622,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>332.1353630451372</v>
       </c>
       <c r="F5" t="n">
-        <v>362.8726103002899</v>
+        <v>357.0810387145868</v>
       </c>
       <c r="G5" t="n">
         <v>363.9123136306534</v>
@@ -27634,7 +27634,7 @@
         <v>323.1357392253592</v>
       </c>
       <c r="I5" t="n">
-        <v>99.17357415002331</v>
+        <v>148.9685811771479</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>49.65101377519441</v>
       </c>
       <c r="S5" t="n">
         <v>172.6645079492214</v>
@@ -27698,16 +27698,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>103.5856233751474</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>107.8500734282763</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.4898938890125</v>
+        <v>86.69488686188784</v>
       </c>
       <c r="H6" t="n">
         <v>103.9912405093721</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>47.15831191777808</v>
       </c>
       <c r="S6" t="n">
         <v>155.8274931817798</v>
@@ -27752,13 +27752,13 @@
         <v>225.8852226550407</v>
       </c>
       <c r="V6" t="n">
-        <v>186.3044498505873</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>155.9779781763528</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>142.591354000716</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2753302804353</v>
+        <v>117.4803232533106</v>
       </c>
       <c r="H7" t="n">
         <v>155.8644016137399</v>
       </c>
       <c r="I7" t="n">
-        <v>84.13394835375472</v>
+        <v>133.9289553808794</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>42.76279030041251</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,13 +27822,13 @@
         <v>95.32019944182534</v>
       </c>
       <c r="S7" t="n">
-        <v>211.5447863772357</v>
+        <v>161.7497793501111</v>
       </c>
       <c r="T7" t="n">
         <v>224.8878160949084</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2799939522351</v>
+        <v>268.6567435810354</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27859,13 +27859,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>326.2069751641965</v>
       </c>
       <c r="F8" t="n">
+        <v>294.7633856167878</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>351.1526508336461</v>
       </c>
       <c r="H8" t="n">
         <v>319.8727099068761</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>257.6184405535454</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>274.1252785311299</v>
@@ -27935,7 +27935,7 @@
         <v>60.59583886339209</v>
       </c>
       <c r="D9" t="n">
-        <v>35.3324054397151</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27950,7 +27950,7 @@
         <v>102.3448132540521</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>54.13711731454486</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>36.57392307749219</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>152.6609993460486</v>
@@ -27995,10 +27995,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>93.66032507855383</v>
       </c>
       <c r="Y9" t="n">
-        <v>161.0709820538165</v>
+        <v>143.5077878167638</v>
       </c>
     </row>
     <row r="10">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>67.71932005701365</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>55.13416097370418</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>36.50281289328871</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>34.32130252164552</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>129.630951895051</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>32.65832442698833</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28062,10 +28062,10 @@
         <v>209.0540751673406</v>
       </c>
       <c r="T10" t="n">
-        <v>224.2771565911783</v>
+        <v>112.1644964662546</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2721982989959</v>
+        <v>201.7919320816837</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>166.7627115617709</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I17" t="n">
         <v>12.38037836605497</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I20" t="n">
         <v>12.38037836605497</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I23" t="n">
         <v>12.38037836605497</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221508</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221424</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605497</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605497</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605497</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221407</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221062</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221407</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605497</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605497</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605497</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221407</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221407</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221407</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605497</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.41553930662436</v>
+        <v>1.415539306624369</v>
       </c>
       <c r="H2" t="n">
-        <v>14.49689192396673</v>
+        <v>14.49689192396683</v>
       </c>
       <c r="I2" t="n">
-        <v>54.57257911863571</v>
+        <v>54.57257911863605</v>
       </c>
       <c r="J2" t="n">
-        <v>120.1421292256094</v>
+        <v>120.1421292256102</v>
       </c>
       <c r="K2" t="n">
-        <v>180.0619080750186</v>
+        <v>180.0619080750198</v>
       </c>
       <c r="L2" t="n">
-        <v>223.3827191301239</v>
+        <v>223.3827191301253</v>
       </c>
       <c r="M2" t="n">
-        <v>248.5563162743049</v>
+        <v>248.5563162743065</v>
       </c>
       <c r="N2" t="n">
-        <v>247.6231466436231</v>
+        <v>247.6231466436247</v>
       </c>
       <c r="O2" t="n">
-        <v>238.5024483490054</v>
+        <v>238.5024483490069</v>
       </c>
       <c r="P2" t="n">
-        <v>203.5563217167165</v>
+        <v>203.5563217167177</v>
       </c>
       <c r="Q2" t="n">
-        <v>152.8623202982315</v>
+        <v>152.8623202982325</v>
       </c>
       <c r="R2" t="n">
-        <v>88.91887096974256</v>
+        <v>88.91887096974311</v>
       </c>
       <c r="S2" t="n">
-        <v>32.25660194970264</v>
+        <v>32.25660194970285</v>
       </c>
       <c r="T2" t="n">
-        <v>6.19652331474814</v>
+        <v>6.19652331474818</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1132431445299488</v>
+        <v>0.1132431445299495</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.757380299766044</v>
+        <v>0.7573802997660488</v>
       </c>
       <c r="H3" t="n">
-        <v>7.314699210898373</v>
+        <v>7.31469921089842</v>
       </c>
       <c r="I3" t="n">
-        <v>26.0764708472081</v>
+        <v>26.07647084720826</v>
       </c>
       <c r="J3" t="n">
-        <v>71.55582911079104</v>
+        <v>71.55582911079149</v>
       </c>
       <c r="K3" t="n">
-        <v>122.300309195116</v>
+        <v>122.3003091951168</v>
       </c>
       <c r="L3" t="n">
-        <v>156.7644628269063</v>
+        <v>156.7644628269079</v>
       </c>
       <c r="M3" t="n">
-        <v>160.3441169690505</v>
+        <v>159.6083560378588</v>
       </c>
       <c r="N3" t="n">
-        <v>138.1640227923884</v>
+        <v>149.5517951303671</v>
       </c>
       <c r="O3" t="n">
-        <v>160.8063274914766</v>
+        <v>160.8063274914782</v>
       </c>
       <c r="P3" t="n">
-        <v>144.6264188211142</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>96.67893089645152</v>
+        <v>96.67893089645213</v>
       </c>
       <c r="R3" t="n">
-        <v>47.02401545389527</v>
+        <v>47.02401545389557</v>
       </c>
       <c r="S3" t="n">
-        <v>14.06800688381226</v>
+        <v>14.06800688381234</v>
       </c>
       <c r="T3" t="n">
-        <v>3.05277410300436</v>
+        <v>3.05277410300438</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04982765130039765</v>
+        <v>0.04982765130039796</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6349622012706407</v>
+        <v>0.6349622012706447</v>
       </c>
       <c r="H4" t="n">
-        <v>5.645391207660792</v>
+        <v>5.645391207660827</v>
       </c>
       <c r="I4" t="n">
-        <v>19.09504510730255</v>
+        <v>19.09504510730267</v>
       </c>
       <c r="J4" t="n">
-        <v>44.8918276298343</v>
+        <v>44.89182762983458</v>
       </c>
       <c r="K4" t="n">
-        <v>73.77106302035261</v>
+        <v>73.77106302035307</v>
       </c>
       <c r="L4" t="n">
-        <v>94.40156217800055</v>
+        <v>94.40156217800114</v>
       </c>
       <c r="M4" t="n">
-        <v>99.53321124099689</v>
+        <v>99.53321124099752</v>
       </c>
       <c r="N4" t="n">
-        <v>97.16653394535184</v>
+        <v>97.16653394535246</v>
       </c>
       <c r="O4" t="n">
-        <v>89.74902095778114</v>
+        <v>89.74902095778171</v>
       </c>
       <c r="P4" t="n">
-        <v>76.79579205186002</v>
+        <v>76.7957920518605</v>
       </c>
       <c r="Q4" t="n">
-        <v>53.16942578094429</v>
+        <v>53.16942578094463</v>
       </c>
       <c r="R4" t="n">
-        <v>28.55020952258717</v>
+        <v>28.55020952258735</v>
       </c>
       <c r="S4" t="n">
-        <v>11.06565945305289</v>
+        <v>11.06565945305296</v>
       </c>
       <c r="T4" t="n">
-        <v>2.71302031452001</v>
+        <v>2.713020314520027</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03463430188748954</v>
+        <v>0.03463430188748975</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31379,10 +31379,10 @@
         <v>181.1367191104579</v>
       </c>
       <c r="O6" t="n">
-        <v>192.3912514715691</v>
+        <v>164.3536950713535</v>
       </c>
       <c r="P6" t="n">
-        <v>134.9670493543445</v>
+        <v>163.0046057545602</v>
       </c>
       <c r="Q6" t="n">
         <v>108.96426215905</v>
@@ -31604,7 +31604,7 @@
         <v>96.75480562798998</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>165.3693736969364</v>
       </c>
       <c r="L9" t="n">
         <v>222.3595307837911</v>
@@ -31613,13 +31613,13 @@
         <v>254.246694046942</v>
       </c>
       <c r="N9" t="n">
-        <v>216.6986083828519</v>
+        <v>243.454372208257</v>
       </c>
       <c r="O9" t="n">
         <v>243.6589731628788</v>
       </c>
       <c r="P9" t="n">
-        <v>195.5578073177395</v>
+        <v>141.2741087697571</v>
       </c>
       <c r="Q9" t="n">
         <v>130.7252153102001</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.709819673601098</v>
+        <v>4.7098196736011</v>
       </c>
       <c r="H14" t="n">
-        <v>48.23444073226725</v>
+        <v>48.23444073226727</v>
       </c>
       <c r="I14" t="n">
-        <v>181.5753229665065</v>
+        <v>181.5753229665066</v>
       </c>
       <c r="J14" t="n">
-        <v>399.7400575223015</v>
+        <v>399.7400575223017</v>
       </c>
       <c r="K14" t="n">
-        <v>599.1067243058361</v>
+        <v>599.1067243058363</v>
       </c>
       <c r="L14" t="n">
-        <v>743.2448681418059</v>
+        <v>743.2448681418061</v>
       </c>
       <c r="M14" t="n">
-        <v>827.0031237622094</v>
+        <v>827.0031237622097</v>
       </c>
       <c r="N14" t="n">
-        <v>840.3848989098285</v>
+        <v>840.3848989098288</v>
       </c>
       <c r="O14" t="n">
-        <v>793.5516295304576</v>
+        <v>793.5516295304578</v>
       </c>
       <c r="P14" t="n">
-        <v>677.2779563384304</v>
+        <v>677.2779563384306</v>
       </c>
       <c r="Q14" t="n">
-        <v>508.6075392775909</v>
+        <v>508.6075392775911</v>
       </c>
       <c r="R14" t="n">
-        <v>295.8532100718452</v>
+        <v>295.8532100718454</v>
       </c>
       <c r="S14" t="n">
-        <v>107.3250158121851</v>
+        <v>107.3250158121852</v>
       </c>
       <c r="T14" t="n">
         <v>20.61723562118882</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3767855738880878</v>
+        <v>0.3767855738880879</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.519975686681948</v>
+        <v>2.519975686681949</v>
       </c>
       <c r="H15" t="n">
-        <v>24.33765992137566</v>
+        <v>24.33765992137567</v>
       </c>
       <c r="I15" t="n">
-        <v>86.7623207914618</v>
+        <v>86.76232079146185</v>
       </c>
       <c r="J15" t="n">
-        <v>135.9953167090705</v>
+        <v>238.0824397667363</v>
       </c>
       <c r="K15" t="n">
-        <v>406.9208107744266</v>
+        <v>406.9208107744268</v>
       </c>
       <c r="L15" t="n">
-        <v>547.1552472332887</v>
+        <v>547.1552472332889</v>
       </c>
       <c r="M15" t="n">
-        <v>638.5043658755092</v>
+        <v>638.5043658755095</v>
       </c>
       <c r="N15" t="n">
-        <v>655.4036765111966</v>
+        <v>655.4036765111969</v>
       </c>
       <c r="O15" t="n">
-        <v>599.5663205062966</v>
+        <v>599.5663205062968</v>
       </c>
       <c r="P15" t="n">
-        <v>481.2048309068362</v>
+        <v>379.1177078491693</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>46.80744312762299</v>
+        <v>46.80744312762301</v>
       </c>
       <c r="T15" t="n">
         <v>10.1572704213189</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1657878741238124</v>
+        <v>0.1657878741238125</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.112662964244428</v>
+        <v>2.112662964244429</v>
       </c>
       <c r="H16" t="n">
-        <v>18.78349435482775</v>
+        <v>18.78349435482776</v>
       </c>
       <c r="I16" t="n">
-        <v>63.53353714291428</v>
+        <v>63.53353714291431</v>
       </c>
       <c r="J16" t="n">
         <v>149.3652715720811</v>
       </c>
       <c r="K16" t="n">
-        <v>245.4530243913071</v>
+        <v>245.4530243913073</v>
       </c>
       <c r="L16" t="n">
-        <v>314.0953647023035</v>
+        <v>314.0953647023036</v>
       </c>
       <c r="M16" t="n">
-        <v>331.1695226587879</v>
+        <v>331.169522658788</v>
       </c>
       <c r="N16" t="n">
-        <v>323.2950516102408</v>
+        <v>323.2950516102409</v>
       </c>
       <c r="O16" t="n">
-        <v>298.6153069824762</v>
+        <v>298.6153069824763</v>
       </c>
       <c r="P16" t="n">
-        <v>255.5169825118896</v>
+        <v>255.5169825118898</v>
       </c>
       <c r="Q16" t="n">
         <v>176.9067142150494</v>
       </c>
       <c r="R16" t="n">
-        <v>94.99300928320854</v>
+        <v>94.99300928320858</v>
       </c>
       <c r="S16" t="n">
-        <v>36.81795365869607</v>
+        <v>36.81795365869608</v>
       </c>
       <c r="T16" t="n">
-        <v>9.026832665408008</v>
+        <v>9.026832665408012</v>
       </c>
       <c r="U16" t="n">
         <v>0.1152361616860599</v>
@@ -32312,13 +32312,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L18" t="n">
-        <v>357.5145194463138</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M18" t="n">
         <v>696.5971294879669</v>
@@ -32327,10 +32327,10 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578283</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>524.986079689235</v>
+        <v>358.0756880380876</v>
       </c>
       <c r="Q18" t="n">
         <v>350.9392912691326</v>
@@ -32549,7 +32549,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J21" t="n">
-        <v>190.0206421035408</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K21" t="n">
         <v>443.943509024727</v>
@@ -32561,7 +32561,7 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>247.5609517346425</v>
       </c>
       <c r="O21" t="n">
         <v>654.1164009578283</v>
@@ -32570,10 +32570,10 @@
         <v>524.986079689235</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S21" t="n">
         <v>51.06610426486996</v>
@@ -32786,22 +32786,22 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L24" t="n">
-        <v>357.5145194463138</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M24" t="n">
         <v>696.5971294879669</v>
       </c>
       <c r="N24" t="n">
-        <v>715.0339827160628</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>654.1164009578283</v>
+        <v>584.3932527497839</v>
       </c>
       <c r="P24" t="n">
         <v>524.986079689235</v>
@@ -32810,7 +32810,7 @@
         <v>350.9392912691326</v>
       </c>
       <c r="R24" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>51.06610426486996</v>
@@ -33023,10 +33023,10 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L27" t="n">
         <v>596.9368339155584</v>
@@ -33038,13 +33038,13 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O27" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P27" t="n">
-        <v>310.5788945437474</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33260,10 +33260,10 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J30" t="n">
-        <v>259.7437903115855</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>443.943509024727</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>596.9368339155584</v>
@@ -33272,19 +33272,19 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N30" t="n">
-        <v>715.0339827160628</v>
+        <v>475.6116682468181</v>
       </c>
       <c r="O30" t="n">
-        <v>602.6701715750701</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S30" t="n">
         <v>51.06610426486996</v>
@@ -33497,16 +33497,16 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L33" t="n">
-        <v>357.5145194463138</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M33" t="n">
-        <v>696.5971294879669</v>
+        <v>645.1509001052084</v>
       </c>
       <c r="N33" t="n">
         <v>715.0339827160628</v>
@@ -33515,13 +33515,13 @@
         <v>654.1164009578283</v>
       </c>
       <c r="P33" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>51.06610426486996</v>
@@ -33734,7 +33734,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J36" t="n">
-        <v>135.7763377130026</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K36" t="n">
         <v>443.943509024727</v>
@@ -33743,10 +33743,10 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N36" t="n">
-        <v>715.0339827160628</v>
+        <v>272.5760810583997</v>
       </c>
       <c r="O36" t="n">
         <v>654.1164009578283</v>
@@ -33755,10 +33755,10 @@
         <v>524.986079689235</v>
       </c>
       <c r="Q36" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>51.06610426486996</v>
@@ -33971,7 +33971,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J39" t="n">
-        <v>208.297560928827</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K39" t="n">
         <v>443.943509024727</v>
@@ -33983,7 +33983,7 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N39" t="n">
-        <v>715.0339827160628</v>
+        <v>663.5877533333045</v>
       </c>
       <c r="O39" t="n">
         <v>654.1164009578283</v>
@@ -34208,7 +34208,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J42" t="n">
-        <v>135.7763377130026</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K42" t="n">
         <v>443.943509024727</v>
@@ -34217,22 +34217,22 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N42" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578283</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>524.986079689235</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691326</v>
+        <v>209.0440289417422</v>
       </c>
       <c r="R42" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486996</v>
@@ -34445,7 +34445,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J45" t="n">
-        <v>259.7437903115855</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>443.943509024727</v>
@@ -34457,13 +34457,13 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N45" t="n">
-        <v>272.5760810583997</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O45" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P45" t="n">
-        <v>524.986079689235</v>
+        <v>215.4343416764904</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34702,19 +34702,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>18.21008304703217</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>18.21008304703217</v>
+        <v>18.21008304703375</v>
       </c>
       <c r="N2" t="n">
-        <v>18.21008304703217</v>
+        <v>18.21008304703375</v>
       </c>
       <c r="O2" t="n">
-        <v>17.47432211583895</v>
+        <v>17.47432211584046</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>18.21008304703375</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,19 +34781,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>18.21008304703217</v>
+        <v>18.21008304703375</v>
       </c>
       <c r="M3" t="n">
-        <v>18.21008304703217</v>
+        <v>17.47432211584045</v>
       </c>
       <c r="N3" t="n">
-        <v>6.822310709055036</v>
+        <v>18.21008304703375</v>
       </c>
       <c r="O3" t="n">
-        <v>18.21008304703217</v>
+        <v>18.21008304703375</v>
       </c>
       <c r="P3" t="n">
-        <v>10.65201140678391</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>18.21008304703217</v>
+        <v>18.21008304703375</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>17.47432211584045</v>
       </c>
       <c r="M4" t="n">
-        <v>18.21008304703217</v>
+        <v>18.21008304703375</v>
       </c>
       <c r="N4" t="n">
-        <v>17.47432211583895</v>
+        <v>18.21008304703375</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.21008304703217</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>42.86418322768704</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>49.79500702712463</v>
+        <v>16.00233074738662</v>
       </c>
       <c r="M5" t="n">
         <v>49.79500702712463</v>
@@ -34948,7 +34948,7 @@
         <v>49.79500702712463</v>
       </c>
       <c r="O5" t="n">
-        <v>47.78308755128121</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35027,10 +35027,10 @@
         <v>49.79500702712463</v>
       </c>
       <c r="O6" t="n">
-        <v>49.79500702712463</v>
+        <v>21.75745062690901</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9926419400142784</v>
+        <v>29.03019834022993</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
         <v>49.79500702712463</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>47.78308755128119</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>49.79500702712463</v>
       </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="P7" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>27.52793472257738</v>
       </c>
       <c r="L9" t="n">
         <v>83.8051510039169</v>
@@ -35261,13 +35261,13 @@
         <v>112.1126601249237</v>
       </c>
       <c r="N9" t="n">
-        <v>85.35689629951858</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O9" t="n">
         <v>101.0627287184343</v>
       </c>
       <c r="P9" t="n">
-        <v>61.58339990340929</v>
+        <v>7.299701355426831</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>77.4806606383279</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>30.10219503710387</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="M10" t="n">
         <v>112.1126601249237</v>
@@ -35343,7 +35343,7 @@
         <v>112.1126601249237</v>
       </c>
       <c r="O10" t="n">
-        <v>112.1126601249237</v>
+        <v>107.5828556754318</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35571,22 +35571,22 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>218.6941529956152</v>
+        <v>218.6941529956154</v>
       </c>
       <c r="K14" t="n">
-        <v>379.0168732608556</v>
+        <v>379.0168732608558</v>
       </c>
       <c r="L14" t="n">
-        <v>507.4784531718187</v>
+        <v>507.4784531718189</v>
       </c>
       <c r="M14" t="n">
-        <v>596.6568905349367</v>
+        <v>596.656890534937</v>
       </c>
       <c r="N14" t="n">
-        <v>610.9718353132375</v>
+        <v>610.971835313238</v>
       </c>
       <c r="O14" t="n">
-        <v>563.4534181087708</v>
+        <v>563.4534181087711</v>
       </c>
       <c r="P14" t="n">
-        <v>446.0449605831608</v>
+        <v>446.0449605831611</v>
       </c>
       <c r="Q14" t="n">
-        <v>286.3018494031414</v>
+        <v>286.3018494031417</v>
       </c>
       <c r="R14" t="n">
-        <v>80.26767225771312</v>
+        <v>80.26767225771323</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>9.157690042403765</v>
+        <v>111.2448131000696</v>
       </c>
       <c r="K15" t="n">
-        <v>269.0793718000676</v>
+        <v>269.0793718000678</v>
       </c>
       <c r="L15" t="n">
-        <v>408.6008674534145</v>
+        <v>408.6008674534148</v>
       </c>
       <c r="M15" t="n">
-        <v>496.3703319534908</v>
+        <v>496.3703319534912</v>
       </c>
       <c r="N15" t="n">
-        <v>524.0619644278634</v>
+        <v>524.0619644278636</v>
       </c>
       <c r="O15" t="n">
-        <v>456.9700760618522</v>
+        <v>456.9700760618524</v>
       </c>
       <c r="P15" t="n">
-        <v>347.230423492506</v>
+        <v>245.1433004348391</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>56.0060914554083</v>
+        <v>56.00609145540835</v>
       </c>
       <c r="K16" t="n">
-        <v>223.1835325654243</v>
+        <v>223.1835325654244</v>
       </c>
       <c r="L16" t="n">
-        <v>341.6853899626196</v>
+        <v>341.6853899626198</v>
       </c>
       <c r="M16" t="n">
-        <v>370.7533996206285</v>
+        <v>370.7533996206286</v>
       </c>
       <c r="N16" t="n">
-        <v>367.4272239894693</v>
+        <v>367.4272239894694</v>
       </c>
       <c r="O16" t="n">
-        <v>323.2004348965159</v>
+        <v>323.200434896516</v>
       </c>
       <c r="P16" t="n">
-        <v>252.7955417767831</v>
+        <v>252.7955417767832</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.74467096335498</v>
+        <v>90.74467096335503</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L18" t="n">
-        <v>218.9601396664396</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M18" t="n">
         <v>554.4630955659486</v>
@@ -35975,10 +35975,10 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O18" t="n">
-        <v>511.5201565133839</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>391.0116722749048</v>
+        <v>224.1012806237574</v>
       </c>
       <c r="Q18" t="n">
         <v>210.9575171831111</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>63.1830154368741</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K21" t="n">
         <v>306.102070050368</v>
@@ -36209,7 +36209,7 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>116.2192396513092</v>
       </c>
       <c r="O21" t="n">
         <v>511.5201565133839</v>
@@ -36218,10 +36218,10 @@
         <v>391.0116722749048</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L24" t="n">
-        <v>218.9601396664396</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M24" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N24" t="n">
-        <v>583.6922706327296</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>511.5201565133839</v>
+        <v>441.7970083053394</v>
       </c>
       <c r="P24" t="n">
         <v>391.0116722749048</v>
@@ -36458,7 +36458,7 @@
         <v>210.9575171831111</v>
       </c>
       <c r="R24" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36519,7 +36519,7 @@
         <v>277.1256801414977</v>
       </c>
       <c r="L25" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M25" t="n">
         <v>432.4942538895098</v>
@@ -36531,10 +36531,10 @@
         <v>381.9794231908712</v>
       </c>
       <c r="P25" t="n">
-        <v>307.6533340553059</v>
+        <v>307.653334055307</v>
       </c>
       <c r="Q25" t="n">
-        <v>138.4502995641584</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L27" t="n">
         <v>458.3824541356842</v>
@@ -36686,13 +36686,13 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O27" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P27" t="n">
-        <v>176.6044871294172</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L28" t="n">
         <v>401.8727935817349</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>132.9061636449188</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>306.102070050368</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>458.3824541356842</v>
@@ -36920,19 +36920,19 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N30" t="n">
-        <v>583.6922706327296</v>
+        <v>344.2699561634848</v>
       </c>
       <c r="O30" t="n">
-        <v>460.0739271306256</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,25 +36990,25 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414976</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L31" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M31" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O31" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P31" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q31" t="n">
-        <v>138.450299564158</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L33" t="n">
-        <v>218.9601396664397</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M33" t="n">
-        <v>554.4630955659486</v>
+        <v>503.01686618319</v>
       </c>
       <c r="N33" t="n">
         <v>583.6922706327296</v>
@@ -37163,13 +37163,13 @@
         <v>511.5201565133839</v>
       </c>
       <c r="P33" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>101.2059290193559</v>
       </c>
       <c r="K34" t="n">
-        <v>277.1256801414944</v>
+        <v>277.1256801414979</v>
       </c>
       <c r="L34" t="n">
         <v>401.872793581735</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>8.93871104633595</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K36" t="n">
         <v>306.102070050368</v>
@@ -37391,10 +37391,10 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N36" t="n">
-        <v>583.6922706327296</v>
+        <v>141.2343689750664</v>
       </c>
       <c r="O36" t="n">
         <v>511.5201565133839</v>
@@ -37403,10 +37403,10 @@
         <v>391.0116722749048</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37467,19 +37467,19 @@
         <v>277.1256801414977</v>
       </c>
       <c r="L37" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M37" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N37" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O37" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P37" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q37" t="n">
         <v>138.4502995641581</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>81.45993426216026</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K39" t="n">
         <v>306.102070050368</v>
@@ -37631,7 +37631,7 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N39" t="n">
-        <v>583.6922706327296</v>
+        <v>532.2460412499712</v>
       </c>
       <c r="O39" t="n">
         <v>511.5201565133839</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L40" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M40" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N40" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O40" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P40" t="n">
         <v>307.6533340553059</v>
       </c>
       <c r="Q40" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>8.93871104633595</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K42" t="n">
         <v>306.102070050368</v>
@@ -37865,22 +37865,22 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N42" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O42" t="n">
-        <v>511.5201565133839</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>391.0116722749048</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9575171831111</v>
+        <v>69.06225485572071</v>
       </c>
       <c r="R42" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K43" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414979</v>
       </c>
       <c r="L43" t="n">
-        <v>401.8727935817349</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M43" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N43" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O43" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P43" t="n">
-        <v>307.6533340553059</v>
+        <v>307.653334055306</v>
       </c>
       <c r="Q43" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>132.9061636449188</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>306.102070050368</v>
@@ -38105,13 +38105,13 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N45" t="n">
-        <v>141.2343689750664</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O45" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P45" t="n">
-        <v>391.0116722749048</v>
+        <v>81.45993426216013</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K46" t="n">
         <v>277.1256801414978</v>
@@ -38181,19 +38181,19 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M46" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N46" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O46" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P46" t="n">
         <v>307.6533340553059</v>
       </c>
       <c r="Q46" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
